--- a/plots/countries/plot data/Portugal.xlsx
+++ b/plots/countries/plot data/Portugal.xlsx
@@ -605,7 +605,7 @@
         <v>17</v>
       </c>
       <c r="F7" t="n">
-        <v>10.8200781379837</v>
+        <v>10.8205410831001</v>
       </c>
     </row>
     <row r="8">
@@ -625,7 +625,7 @@
         <v>17</v>
       </c>
       <c r="F8" t="n">
-        <v>6.36554226687288</v>
+        <v>6.3658243828923</v>
       </c>
     </row>
     <row r="9">
@@ -645,7 +645,7 @@
         <v>17</v>
       </c>
       <c r="F9" t="n">
-        <v>7.13778784107518</v>
+        <v>4.41362155630994</v>
       </c>
     </row>
     <row r="10">
@@ -665,7 +665,7 @@
         <v>17</v>
       </c>
       <c r="F10" t="n">
-        <v>4.47062496666502</v>
+        <v>4.43442566058691</v>
       </c>
     </row>
     <row r="11">
@@ -745,7 +745,7 @@
         <v>17</v>
       </c>
       <c r="F14" t="n">
-        <v>9.33681881962225</v>
+        <v>9.26672884041085</v>
       </c>
     </row>
     <row r="15">
@@ -785,7 +785,7 @@
         <v>17</v>
       </c>
       <c r="F16" t="n">
-        <v>11.5514632270263</v>
+        <v>11.5518669434263</v>
       </c>
     </row>
     <row r="17">
@@ -805,7 +805,7 @@
         <v>17</v>
       </c>
       <c r="F17" t="n">
-        <v>6.20095820783594</v>
+        <v>6.01927787499414</v>
       </c>
     </row>
     <row r="18">
@@ -825,7 +825,7 @@
         <v>17</v>
       </c>
       <c r="F18" t="n">
-        <v>-2.231187444752</v>
+        <v>-1.88228266151477</v>
       </c>
     </row>
     <row r="19">
@@ -845,7 +845,7 @@
         <v>17</v>
       </c>
       <c r="F19" t="n">
-        <v>4.61588526005458</v>
+        <v>4.58001941823608</v>
       </c>
     </row>
     <row r="20">
@@ -965,7 +965,7 @@
         <v>17</v>
       </c>
       <c r="F25" t="n">
-        <v>12.4225370936499</v>
+        <v>12.4228818988816</v>
       </c>
     </row>
     <row r="26">
@@ -985,7 +985,7 @@
         <v>17</v>
       </c>
       <c r="F26" t="n">
-        <v>5.85576076756585</v>
+        <v>5.85602568880485</v>
       </c>
     </row>
     <row r="27">
@@ -1005,7 +1005,7 @@
         <v>17</v>
       </c>
       <c r="F27" t="n">
-        <v>-8.86727042309832</v>
+        <v>-5.98842029207083</v>
       </c>
     </row>
     <row r="28">
@@ -1025,7 +1025,7 @@
         <v>17</v>
       </c>
       <c r="F28" t="n">
-        <v>4.71542784964841</v>
+        <v>4.68882523680294</v>
       </c>
     </row>
     <row r="29">
@@ -1145,7 +1145,7 @@
         <v>17</v>
       </c>
       <c r="F34" t="n">
-        <v>12.8793646342778</v>
+        <v>12.8797353818713</v>
       </c>
     </row>
     <row r="35">
@@ -1165,7 +1165,7 @@
         <v>17</v>
       </c>
       <c r="F35" t="n">
-        <v>5.74592764773727</v>
+        <v>5.74617117410784</v>
       </c>
     </row>
     <row r="36">
@@ -1185,7 +1185,7 @@
         <v>17</v>
       </c>
       <c r="F36" t="n">
-        <v>-9.69270147953573</v>
+        <v>-5.72966713523443</v>
       </c>
     </row>
     <row r="37">
@@ -1205,7 +1205,7 @@
         <v>17</v>
       </c>
       <c r="F37" t="n">
-        <v>4.78742342407244</v>
+        <v>4.77478539163377</v>
       </c>
     </row>
     <row r="38">
@@ -1325,7 +1325,7 @@
         <v>17</v>
       </c>
       <c r="F43" t="n">
-        <v>13.5751887906404</v>
+        <v>13.5756198657329</v>
       </c>
     </row>
     <row r="44">
@@ -1345,7 +1345,7 @@
         <v>17</v>
       </c>
       <c r="F44" t="n">
-        <v>5.76008705265091</v>
+        <v>5.7603925471187</v>
       </c>
     </row>
     <row r="45">
@@ -1365,7 +1365,7 @@
         <v>17</v>
       </c>
       <c r="F45" t="n">
-        <v>-8.82624596343558</v>
+        <v>-4.65995632801372</v>
       </c>
     </row>
     <row r="46">
@@ -1385,7 +1385,7 @@
         <v>17</v>
       </c>
       <c r="F46" t="n">
-        <v>4.96334656431528</v>
+        <v>4.95069465374767</v>
       </c>
     </row>
     <row r="47">
@@ -1505,7 +1505,7 @@
         <v>17</v>
       </c>
       <c r="F52" t="n">
-        <v>14.1859082378741</v>
+        <v>14.1863623592881</v>
       </c>
     </row>
     <row r="53">
@@ -1525,7 +1525,7 @@
         <v>17</v>
       </c>
       <c r="F53" t="n">
-        <v>6.6368702166872</v>
+        <v>6.63716864806836</v>
       </c>
     </row>
     <row r="54">
@@ -1545,7 +1545,7 @@
         <v>17</v>
       </c>
       <c r="F54" t="n">
-        <v>-10.1914122688324</v>
+        <v>-4.73617006419597</v>
       </c>
     </row>
     <row r="55">
@@ -1565,7 +1565,7 @@
         <v>17</v>
       </c>
       <c r="F55" t="n">
-        <v>5.17720359166591</v>
+        <v>5.16283844061736</v>
       </c>
     </row>
     <row r="56">
@@ -1685,7 +1685,7 @@
         <v>17</v>
       </c>
       <c r="F61" t="n">
-        <v>15.0105456927079</v>
+        <v>15.0111644595977</v>
       </c>
     </row>
     <row r="62">
@@ -1705,7 +1705,7 @@
         <v>17</v>
       </c>
       <c r="F62" t="n">
-        <v>6.75065582199911</v>
+        <v>6.75085463751352</v>
       </c>
     </row>
     <row r="63">
@@ -1725,7 +1725,7 @@
         <v>17</v>
       </c>
       <c r="F63" t="n">
-        <v>-9.05805770322593</v>
+        <v>-3.32984211615275</v>
       </c>
     </row>
     <row r="64">
@@ -1745,7 +1745,7 @@
         <v>17</v>
       </c>
       <c r="F64" t="n">
-        <v>5.41877182436026</v>
+        <v>5.40247039754285</v>
       </c>
     </row>
     <row r="65">
@@ -1865,7 +1865,7 @@
         <v>17</v>
       </c>
       <c r="F70" t="n">
-        <v>15.698063649494</v>
+        <v>15.6998700896671</v>
       </c>
     </row>
     <row r="71">
@@ -1885,7 +1885,7 @@
         <v>17</v>
       </c>
       <c r="F71" t="n">
-        <v>7.15218283158936</v>
+        <v>7.15215699499551</v>
       </c>
     </row>
     <row r="72">
@@ -1905,7 +1905,7 @@
         <v>17</v>
       </c>
       <c r="F72" t="n">
-        <v>-10.0966972044561</v>
+        <v>-4.30885814558137</v>
       </c>
     </row>
     <row r="73">
@@ -1925,7 +1925,7 @@
         <v>17</v>
       </c>
       <c r="F73" t="n">
-        <v>5.66256411635338</v>
+        <v>5.64506334555397</v>
       </c>
     </row>
     <row r="74">
@@ -2045,7 +2045,7 @@
         <v>17</v>
       </c>
       <c r="F79" t="n">
-        <v>17.1223163726982</v>
+        <v>17.1240386658772</v>
       </c>
     </row>
     <row r="80">
@@ -2065,7 +2065,7 @@
         <v>17</v>
       </c>
       <c r="F80" t="n">
-        <v>7.29252347343174</v>
+        <v>7.29209212408424</v>
       </c>
     </row>
     <row r="81">
@@ -2085,7 +2085,7 @@
         <v>17</v>
       </c>
       <c r="F81" t="n">
-        <v>-9.70817329036036</v>
+        <v>-3.62866247862573</v>
       </c>
     </row>
     <row r="82">
@@ -2105,7 +2105,7 @@
         <v>17</v>
       </c>
       <c r="F82" t="n">
-        <v>5.92324006328189</v>
+        <v>5.90607057799705</v>
       </c>
     </row>
     <row r="83">
@@ -2225,7 +2225,7 @@
         <v>17</v>
       </c>
       <c r="F88" t="n">
-        <v>17.9860167568122</v>
+        <v>17.9879096815764</v>
       </c>
     </row>
     <row r="89">
@@ -2245,7 +2245,7 @@
         <v>17</v>
       </c>
       <c r="F89" t="n">
-        <v>7.73021568461199</v>
+        <v>7.72923187876408</v>
       </c>
     </row>
     <row r="90">
@@ -2265,7 +2265,7 @@
         <v>17</v>
       </c>
       <c r="F90" t="n">
-        <v>-10.2031555401926</v>
+        <v>-4.44072789292873</v>
       </c>
     </row>
     <row r="91">
@@ -2285,7 +2285,7 @@
         <v>17</v>
       </c>
       <c r="F91" t="n">
-        <v>6.20232070426512</v>
+        <v>6.18893735510482</v>
       </c>
     </row>
     <row r="92">
@@ -2365,7 +2365,7 @@
         <v>17</v>
       </c>
       <c r="F95" t="n">
-        <v>11.6659554263705</v>
+        <v>11.5116547605129</v>
       </c>
     </row>
     <row r="96">
@@ -2405,7 +2405,7 @@
         <v>17</v>
       </c>
       <c r="F97" t="n">
-        <v>19.7271805742483</v>
+        <v>19.7286163683388</v>
       </c>
     </row>
     <row r="98">
@@ -2425,7 +2425,7 @@
         <v>17</v>
       </c>
       <c r="F98" t="n">
-        <v>8.01440107969446</v>
+        <v>8.01267819689956</v>
       </c>
     </row>
     <row r="99">
@@ -2445,7 +2445,7 @@
         <v>17</v>
       </c>
       <c r="F99" t="n">
-        <v>-2.04645943253888</v>
+        <v>1.62683284443206</v>
       </c>
     </row>
     <row r="100">
@@ -2465,7 +2465,7 @@
         <v>17</v>
       </c>
       <c r="F100" t="n">
-        <v>6.52041942450136</v>
+        <v>6.50324269200465</v>
       </c>
     </row>
     <row r="101">
@@ -2585,7 +2585,7 @@
         <v>17</v>
       </c>
       <c r="F106" t="n">
-        <v>20.0730327208954</v>
+        <v>20.0727421023806</v>
       </c>
     </row>
     <row r="107">
@@ -2605,7 +2605,7 @@
         <v>17</v>
       </c>
       <c r="F107" t="n">
-        <v>7.28775935238344</v>
+        <v>7.28505385061123</v>
       </c>
     </row>
     <row r="108">
@@ -2625,7 +2625,7 @@
         <v>17</v>
       </c>
       <c r="F108" t="n">
-        <v>-8.34142474285645</v>
+        <v>-2.81053523755299</v>
       </c>
     </row>
     <row r="109">
@@ -2645,7 +2645,7 @@
         <v>17</v>
       </c>
       <c r="F109" t="n">
-        <v>6.70336750221211</v>
+        <v>6.6861796692599</v>
       </c>
     </row>
     <row r="110">
@@ -2765,7 +2765,7 @@
         <v>17</v>
       </c>
       <c r="F115" t="n">
-        <v>20.4098894300127</v>
+        <v>20.4084963060346</v>
       </c>
     </row>
     <row r="116">
@@ -2785,7 +2785,7 @@
         <v>17</v>
       </c>
       <c r="F116" t="n">
-        <v>7.486120263736</v>
+        <v>7.48222212652289</v>
       </c>
     </row>
     <row r="117">
@@ -2805,7 +2805,7 @@
         <v>17</v>
       </c>
       <c r="F117" t="n">
-        <v>-7.91458026797569</v>
+        <v>-2.82289841085501</v>
       </c>
     </row>
     <row r="118">
@@ -2825,7 +2825,7 @@
         <v>17</v>
       </c>
       <c r="F118" t="n">
-        <v>6.82453379416464</v>
+        <v>6.80996462626529</v>
       </c>
     </row>
     <row r="119">
@@ -2945,7 +2945,7 @@
         <v>17</v>
       </c>
       <c r="F124" t="n">
-        <v>20.2866947025356</v>
+        <v>20.2844156292072</v>
       </c>
     </row>
     <row r="125">
@@ -2965,7 +2965,7 @@
         <v>17</v>
       </c>
       <c r="F125" t="n">
-        <v>7.55803777023721</v>
+        <v>7.55261664078748</v>
       </c>
     </row>
     <row r="126">
@@ -2985,7 +2985,7 @@
         <v>17</v>
       </c>
       <c r="F126" t="n">
-        <v>4.92974955838891</v>
+        <v>7.80411167371955</v>
       </c>
     </row>
     <row r="127">
@@ -3005,7 +3005,7 @@
         <v>17</v>
       </c>
       <c r="F127" t="n">
-        <v>6.98172500439231</v>
+        <v>6.96704063937431</v>
       </c>
     </row>
     <row r="128">
@@ -3125,7 +3125,7 @@
         <v>17</v>
       </c>
       <c r="F133" t="n">
-        <v>20.2483745732407</v>
+        <v>20.2460679925297</v>
       </c>
     </row>
     <row r="134">
@@ -3145,7 +3145,7 @@
         <v>17</v>
       </c>
       <c r="F134" t="n">
-        <v>8.22379502980156</v>
+        <v>8.21657568916918</v>
       </c>
     </row>
     <row r="135">
@@ -3165,7 +3165,7 @@
         <v>17</v>
       </c>
       <c r="F135" t="n">
-        <v>-4.38676796486447</v>
+        <v>-1.93589015131906</v>
       </c>
     </row>
     <row r="136">
@@ -3185,7 +3185,7 @@
         <v>17</v>
       </c>
       <c r="F136" t="n">
-        <v>7.00124983510191</v>
+        <v>6.98767896207854</v>
       </c>
     </row>
     <row r="137">
@@ -3305,7 +3305,7 @@
         <v>17</v>
       </c>
       <c r="F142" t="n">
-        <v>19.9473676746343</v>
+        <v>19.9445647525771</v>
       </c>
     </row>
     <row r="143">
@@ -3325,7 +3325,7 @@
         <v>17</v>
       </c>
       <c r="F143" t="n">
-        <v>8.21064667519469</v>
+        <v>8.20129039506503</v>
       </c>
     </row>
     <row r="144">
@@ -3345,7 +3345,7 @@
         <v>17</v>
       </c>
       <c r="F144" t="n">
-        <v>3.48928626524418</v>
+        <v>4.42638106884115</v>
       </c>
     </row>
     <row r="145">
@@ -3365,7 +3365,7 @@
         <v>17</v>
       </c>
       <c r="F145" t="n">
-        <v>6.80561906113538</v>
+        <v>6.79313770729804</v>
       </c>
     </row>
     <row r="146">
@@ -3445,7 +3445,7 @@
         <v>17</v>
       </c>
       <c r="F149" t="n">
-        <v>10.3049451507815</v>
+        <v>10.3049412516601</v>
       </c>
     </row>
     <row r="150">
@@ -3485,7 +3485,7 @@
         <v>17</v>
       </c>
       <c r="F151" t="n">
-        <v>19.9588399793677</v>
+        <v>19.95616788929</v>
       </c>
     </row>
     <row r="152">
@@ -3505,7 +3505,7 @@
         <v>17</v>
       </c>
       <c r="F152" t="n">
-        <v>7.85768327969119</v>
+        <v>7.84611271897829</v>
       </c>
     </row>
     <row r="153">
@@ -3525,7 +3525,7 @@
         <v>17</v>
       </c>
       <c r="F153" t="n">
-        <v>-1.93717500069161</v>
+        <v>-2.19176312407021</v>
       </c>
     </row>
     <row r="154">
@@ -3545,7 +3545,7 @@
         <v>17</v>
       </c>
       <c r="F154" t="n">
-        <v>6.73129158551986</v>
+        <v>6.71785343499579</v>
       </c>
     </row>
     <row r="155">
@@ -3625,7 +3625,7 @@
         <v>17</v>
       </c>
       <c r="F158" t="n">
-        <v>10.3706762892978</v>
+        <v>10.3706758698549</v>
       </c>
     </row>
     <row r="159">
@@ -3665,7 +3665,7 @@
         <v>17</v>
       </c>
       <c r="F160" t="n">
-        <v>19.546424178876</v>
+        <v>19.543363060777</v>
       </c>
     </row>
     <row r="161">
@@ -3685,7 +3685,7 @@
         <v>17</v>
       </c>
       <c r="F161" t="n">
-        <v>8.63164207440919</v>
+        <v>8.61706384433139</v>
       </c>
     </row>
     <row r="162">
@@ -3705,7 +3705,7 @@
         <v>17</v>
       </c>
       <c r="F162" t="n">
-        <v>-3.49913484404655</v>
+        <v>-2.55551152132383</v>
       </c>
     </row>
     <row r="163">
@@ -3725,7 +3725,7 @@
         <v>17</v>
       </c>
       <c r="F163" t="n">
-        <v>6.63119194123434</v>
+        <v>6.61678721483488</v>
       </c>
     </row>
     <row r="164">
@@ -3845,7 +3845,7 @@
         <v>17</v>
       </c>
       <c r="F169" t="n">
-        <v>19.2086362992235</v>
+        <v>19.2055122986542</v>
       </c>
     </row>
     <row r="170">
@@ -3865,7 +3865,7 @@
         <v>17</v>
       </c>
       <c r="F170" t="n">
-        <v>8.35252766887475</v>
+        <v>8.33469931225486</v>
       </c>
     </row>
     <row r="171">
@@ -3885,7 +3885,7 @@
         <v>17</v>
       </c>
       <c r="F171" t="n">
-        <v>-9.46182452926359</v>
+        <v>-6.09753576040281</v>
       </c>
     </row>
     <row r="172">
@@ -3905,7 +3905,7 @@
         <v>17</v>
       </c>
       <c r="F172" t="n">
-        <v>6.48247110571038</v>
+        <v>6.47002207467048</v>
       </c>
     </row>
     <row r="173">
@@ -4025,7 +4025,7 @@
         <v>17</v>
       </c>
       <c r="F178" t="n">
-        <v>19.1850238265902</v>
+        <v>19.1822113217542</v>
       </c>
     </row>
     <row r="179">
@@ -4045,7 +4045,7 @@
         <v>17</v>
       </c>
       <c r="F179" t="n">
-        <v>6.56164279976522</v>
+        <v>6.54029966578713</v>
       </c>
     </row>
     <row r="180">
@@ -4065,7 +4065,7 @@
         <v>17</v>
       </c>
       <c r="F180" t="n">
-        <v>-10.3606593537762</v>
+        <v>-4.69352071863234</v>
       </c>
     </row>
     <row r="181">
@@ -4085,7 +4085,7 @@
         <v>17</v>
       </c>
       <c r="F181" t="n">
-        <v>6.42419647522286</v>
+        <v>6.41132658743405</v>
       </c>
     </row>
     <row r="182">
@@ -4205,7 +4205,7 @@
         <v>17</v>
       </c>
       <c r="F187" t="n">
-        <v>18.974658675797</v>
+        <v>18.9715558321225</v>
       </c>
     </row>
     <row r="188">
@@ -4225,7 +4225,7 @@
         <v>17</v>
       </c>
       <c r="F188" t="n">
-        <v>6.93948497691564</v>
+        <v>6.91440835717045</v>
       </c>
     </row>
     <row r="189">
@@ -4245,7 +4245,7 @@
         <v>17</v>
       </c>
       <c r="F189" t="n">
-        <v>-6.5611538494909</v>
+        <v>-3.13483286478595</v>
       </c>
     </row>
     <row r="190">
@@ -4265,7 +4265,7 @@
         <v>17</v>
       </c>
       <c r="F190" t="n">
-        <v>6.26022143033742</v>
+        <v>6.24645484220221</v>
       </c>
     </row>
     <row r="191">
@@ -4385,7 +4385,7 @@
         <v>17</v>
       </c>
       <c r="F196" t="n">
-        <v>17.6241614828186</v>
+        <v>17.6210140782292</v>
       </c>
     </row>
     <row r="197">
@@ -4405,7 +4405,7 @@
         <v>17</v>
       </c>
       <c r="F197" t="n">
-        <v>6.21712285765398</v>
+        <v>6.18840184298036</v>
       </c>
     </row>
     <row r="198">
@@ -4425,7 +4425,7 @@
         <v>17</v>
       </c>
       <c r="F198" t="n">
-        <v>-3.04638967958687</v>
+        <v>-3.13161740255235</v>
       </c>
     </row>
     <row r="199">
@@ -4445,7 +4445,7 @@
         <v>17</v>
       </c>
       <c r="F199" t="n">
-        <v>6.22477617387839</v>
+        <v>6.21114361070074</v>
       </c>
     </row>
     <row r="200">
@@ -4565,7 +4565,7 @@
         <v>17</v>
       </c>
       <c r="F205" t="n">
-        <v>16.2323688835763</v>
+        <v>16.2294568862401</v>
       </c>
     </row>
     <row r="206">
@@ -4585,7 +4585,7 @@
         <v>17</v>
       </c>
       <c r="F206" t="n">
-        <v>5.85404070427442</v>
+        <v>5.82027216420127</v>
       </c>
     </row>
     <row r="207">
@@ -4605,7 +4605,7 @@
         <v>17</v>
       </c>
       <c r="F207" t="n">
-        <v>-1.18484255224384</v>
+        <v>-2.36591894193238</v>
       </c>
     </row>
     <row r="208">
@@ -4625,7 +4625,7 @@
         <v>17</v>
       </c>
       <c r="F208" t="n">
-        <v>6.00914095545157</v>
+        <v>5.99494225380647</v>
       </c>
     </row>
     <row r="209">
@@ -4745,7 +4745,7 @@
         <v>17</v>
       </c>
       <c r="F214" t="n">
-        <v>15.865517454179</v>
+        <v>15.8624452973898</v>
       </c>
     </row>
     <row r="215">
@@ -4765,7 +4765,7 @@
         <v>17</v>
       </c>
       <c r="F215" t="n">
-        <v>6.26709008242769</v>
+        <v>6.22365945250912</v>
       </c>
     </row>
     <row r="216">
@@ -4785,7 +4785,7 @@
         <v>17</v>
       </c>
       <c r="F216" t="n">
-        <v>-0.01760525435488</v>
+        <v>-1.12511999479602</v>
       </c>
     </row>
     <row r="217">
@@ -4805,7 +4805,7 @@
         <v>17</v>
       </c>
       <c r="F217" t="n">
-        <v>5.87463021485939</v>
+        <v>5.8566718243614</v>
       </c>
     </row>
     <row r="218">
@@ -4925,7 +4925,7 @@
         <v>17</v>
       </c>
       <c r="F223" t="n">
-        <v>16.2060670277603</v>
+        <v>16.2030507743714</v>
       </c>
     </row>
     <row r="224">
@@ -4945,7 +4945,7 @@
         <v>17</v>
       </c>
       <c r="F224" t="n">
-        <v>6.6897289210077</v>
+        <v>6.64594230764946</v>
       </c>
     </row>
     <row r="225">
@@ -4965,7 +4965,7 @@
         <v>17</v>
       </c>
       <c r="F225" t="n">
-        <v>-5.11576437891344</v>
+        <v>-3.86811762812966</v>
       </c>
     </row>
     <row r="226">
@@ -4985,7 +4985,7 @@
         <v>17</v>
       </c>
       <c r="F226" t="n">
-        <v>5.78228944678071</v>
+        <v>5.75759670905653</v>
       </c>
     </row>
     <row r="227">
@@ -5105,7 +5105,7 @@
         <v>17</v>
       </c>
       <c r="F232" t="n">
-        <v>16.3706517292766</v>
+        <v>16.3670163032244</v>
       </c>
     </row>
     <row r="233">
@@ -5125,7 +5125,7 @@
         <v>17</v>
       </c>
       <c r="F233" t="n">
-        <v>6.66859649622686</v>
+        <v>6.62591118267958</v>
       </c>
     </row>
     <row r="234">
@@ -5145,7 +5145,7 @@
         <v>17</v>
       </c>
       <c r="F234" t="n">
-        <v>-3.78243269777292</v>
+        <v>-2.60378809854029</v>
       </c>
     </row>
     <row r="235">
@@ -5165,7 +5165,7 @@
         <v>17</v>
       </c>
       <c r="F235" t="n">
-        <v>5.57751511797571</v>
+        <v>5.54319514656005</v>
       </c>
     </row>
     <row r="236">
@@ -5285,7 +5285,7 @@
         <v>17</v>
       </c>
       <c r="F241" t="n">
-        <v>16.8310560543155</v>
+        <v>16.8276623408377</v>
       </c>
     </row>
     <row r="242">
@@ -5305,7 +5305,7 @@
         <v>17</v>
       </c>
       <c r="F242" t="n">
-        <v>6.0232215020776</v>
+        <v>5.9815885244903</v>
       </c>
     </row>
     <row r="243">
@@ -5325,7 +5325,7 @@
         <v>17</v>
       </c>
       <c r="F243" t="n">
-        <v>1.05062196317442</v>
+        <v>-0.310983884579561</v>
       </c>
     </row>
     <row r="244">
@@ -5345,7 +5345,7 @@
         <v>17</v>
       </c>
       <c r="F244" t="n">
-        <v>5.57971297452357</v>
+        <v>5.54093571452446</v>
       </c>
     </row>
     <row r="245">
@@ -5465,7 +5465,7 @@
         <v>17</v>
       </c>
       <c r="F250" t="n">
-        <v>17.1792927149058</v>
+        <v>17.1741430583103</v>
       </c>
     </row>
     <row r="251">
@@ -5485,7 +5485,7 @@
         <v>17</v>
       </c>
       <c r="F251" t="n">
-        <v>6.37458796753755</v>
+        <v>6.32985749477258</v>
       </c>
     </row>
     <row r="252">
@@ -5505,7 +5505,7 @@
         <v>17</v>
       </c>
       <c r="F252" t="n">
-        <v>21.4718803187532</v>
+        <v>15.0515096874808</v>
       </c>
     </row>
     <row r="253">
@@ -5525,7 +5525,7 @@
         <v>17</v>
       </c>
       <c r="F253" t="n">
-        <v>5.59441090683924</v>
+        <v>5.54283081024397</v>
       </c>
     </row>
     <row r="254">
@@ -5605,7 +5605,7 @@
         <v>17</v>
       </c>
       <c r="F257" t="n">
-        <v>7.55738906970853</v>
+        <v>7.55736219683966</v>
       </c>
     </row>
     <row r="258">
@@ -5645,7 +5645,7 @@
         <v>17</v>
       </c>
       <c r="F259" t="n">
-        <v>17.2439791124405</v>
+        <v>17.2377250744644</v>
       </c>
     </row>
     <row r="260">
@@ -5665,7 +5665,7 @@
         <v>17</v>
       </c>
       <c r="F260" t="n">
-        <v>5.95967758699791</v>
+        <v>5.89781549861706</v>
       </c>
     </row>
     <row r="261">
@@ -5685,7 +5685,7 @@
         <v>17</v>
       </c>
       <c r="F261" t="n">
-        <v>-3.4969234315297</v>
+        <v>-3.9615466119471</v>
       </c>
     </row>
     <row r="262">
@@ -5705,7 +5705,7 @@
         <v>17</v>
       </c>
       <c r="F262" t="n">
-        <v>5.67121860287036</v>
+        <v>5.58859252638188</v>
       </c>
     </row>
     <row r="263">
@@ -5725,7 +5725,7 @@
         <v>17</v>
       </c>
       <c r="F263" t="n">
-        <v>7.24819324942751</v>
+        <v>7.2179996125933</v>
       </c>
     </row>
     <row r="264">
@@ -5785,7 +5785,7 @@
         <v>17</v>
       </c>
       <c r="F266" t="n">
-        <v>7.81589902525993</v>
+        <v>7.81584349027803</v>
       </c>
     </row>
     <row r="267">
@@ -5825,7 +5825,7 @@
         <v>17</v>
       </c>
       <c r="F268" t="n">
-        <v>17.7411684610787</v>
+        <v>17.7336551479185</v>
       </c>
     </row>
     <row r="269">
@@ -5845,7 +5845,7 @@
         <v>17</v>
       </c>
       <c r="F269" t="n">
-        <v>6.25450222274288</v>
+        <v>6.18181668987008</v>
       </c>
     </row>
     <row r="270">
@@ -5865,7 +5865,7 @@
         <v>17</v>
       </c>
       <c r="F270" t="n">
-        <v>-4.49853815107936</v>
+        <v>-3.28092359705361</v>
       </c>
     </row>
     <row r="271">
@@ -5885,7 +5885,7 @@
         <v>17</v>
       </c>
       <c r="F271" t="n">
-        <v>5.70188636517645</v>
+        <v>5.62064947281647</v>
       </c>
     </row>
     <row r="272">
@@ -5905,7 +5905,7 @@
         <v>17</v>
       </c>
       <c r="F272" t="n">
-        <v>7.27128814424595</v>
+        <v>7.27147183614518</v>
       </c>
     </row>
     <row r="273">
@@ -5965,7 +5965,7 @@
         <v>17</v>
       </c>
       <c r="F275" t="n">
-        <v>7.63677868442525</v>
+        <v>7.63618568254198</v>
       </c>
     </row>
     <row r="276">
@@ -6005,7 +6005,7 @@
         <v>17</v>
       </c>
       <c r="F277" t="n">
-        <v>14.8330660828229</v>
+        <v>14.8237439350395</v>
       </c>
     </row>
     <row r="278">
@@ -6025,7 +6025,7 @@
         <v>17</v>
       </c>
       <c r="F278" t="n">
-        <v>6.11252386815737</v>
+        <v>6.03319086612239</v>
       </c>
     </row>
     <row r="279">
@@ -6045,7 +6045,7 @@
         <v>17</v>
       </c>
       <c r="F279" t="n">
-        <v>-4.70712311252771</v>
+        <v>-3.51937543339112</v>
       </c>
     </row>
     <row r="280">
@@ -6065,7 +6065,7 @@
         <v>17</v>
       </c>
       <c r="F280" t="n">
-        <v>5.55387164364205</v>
+        <v>5.4983744740257</v>
       </c>
     </row>
     <row r="281">
@@ -6085,7 +6085,7 @@
         <v>17</v>
       </c>
       <c r="F281" t="n">
-        <v>7.24435046857666</v>
+        <v>7.26653965001502</v>
       </c>
     </row>
     <row r="282">
@@ -6105,7 +6105,7 @@
         <v>17</v>
       </c>
       <c r="F282" t="n">
-        <v>4.48030304977255</v>
+        <v>4.45893919727773</v>
       </c>
     </row>
     <row r="283">
@@ -6125,7 +6125,7 @@
         <v>17</v>
       </c>
       <c r="F283" t="n">
-        <v>1.02527608207087</v>
+        <v>1.02478387340905</v>
       </c>
     </row>
     <row r="284">
@@ -6145,7 +6145,7 @@
         <v>17</v>
       </c>
       <c r="F284" t="n">
-        <v>7.57151418927422</v>
+        <v>7.60876272297284</v>
       </c>
     </row>
     <row r="285">
@@ -6185,7 +6185,7 @@
         <v>17</v>
       </c>
       <c r="F286" t="n">
-        <v>15.9138002843925</v>
+        <v>15.9017757459037</v>
       </c>
     </row>
     <row r="287">
@@ -6205,7 +6205,7 @@
         <v>17</v>
       </c>
       <c r="F287" t="n">
-        <v>5.93144230322785</v>
+        <v>5.8467226148509</v>
       </c>
     </row>
     <row r="288">
@@ -6225,7 +6225,7 @@
         <v>17</v>
       </c>
       <c r="F288" t="n">
-        <v>-6.02104997156691</v>
+        <v>-2.63401849229384</v>
       </c>
     </row>
     <row r="289">
@@ -6245,7 +6245,7 @@
         <v>17</v>
       </c>
       <c r="F289" t="n">
-        <v>5.63159956139382</v>
+        <v>5.56254926569939</v>
       </c>
     </row>
     <row r="290">
@@ -6265,7 +6265,7 @@
         <v>17</v>
       </c>
       <c r="F290" t="n">
-        <v>6.94129958150627</v>
+        <v>6.99460561676648</v>
       </c>
     </row>
     <row r="291">
@@ -6285,7 +6285,7 @@
         <v>17</v>
       </c>
       <c r="F291" t="n">
-        <v>4.31306199023968</v>
+        <v>4.2776460467777</v>
       </c>
     </row>
     <row r="292">
@@ -6305,7 +6305,7 @@
         <v>17</v>
       </c>
       <c r="F292" t="n">
-        <v>1.25253317830624</v>
+        <v>1.25257602463672</v>
       </c>
     </row>
     <row r="293">
@@ -6325,7 +6325,7 @@
         <v>17</v>
       </c>
       <c r="F293" t="n">
-        <v>6.79266041405305</v>
+        <v>6.81659090907533</v>
       </c>
     </row>
     <row r="294">
@@ -6345,7 +6345,7 @@
         <v>17</v>
       </c>
       <c r="F294" t="n">
-        <v>8.37242996703945</v>
+        <v>8.37242066297549</v>
       </c>
     </row>
     <row r="295">
@@ -6365,7 +6365,7 @@
         <v>17</v>
       </c>
       <c r="F295" t="n">
-        <v>17.0621225818382</v>
+        <v>17.1072697961182</v>
       </c>
     </row>
     <row r="296">
@@ -6385,7 +6385,7 @@
         <v>17</v>
       </c>
       <c r="F296" t="n">
-        <v>5.877649577569</v>
+        <v>5.78970677747595</v>
       </c>
     </row>
     <row r="297">
@@ -6405,7 +6405,7 @@
         <v>17</v>
       </c>
       <c r="F297" t="n">
-        <v>-5.92496318007161</v>
+        <v>-0.425165779334678</v>
       </c>
     </row>
     <row r="298">
@@ -6425,7 +6425,187 @@
         <v>17</v>
       </c>
       <c r="F298" t="n">
-        <v>5.64276005796655</v>
+        <v>5.66510032674162</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="s">
+        <v>14</v>
+      </c>
+      <c r="B299" t="s">
+        <v>15</v>
+      </c>
+      <c r="C299" t="s">
+        <v>16</v>
+      </c>
+      <c r="D299" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E299" t="s">
+        <v>17</v>
+      </c>
+      <c r="F299" t="n">
+        <v>6.97342999974324</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="s">
+        <v>14</v>
+      </c>
+      <c r="B300" t="s">
+        <v>15</v>
+      </c>
+      <c r="C300" t="s">
+        <v>18</v>
+      </c>
+      <c r="D300" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E300" t="s">
+        <v>17</v>
+      </c>
+      <c r="F300" t="n">
+        <v>4.16075193725299</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="s">
+        <v>14</v>
+      </c>
+      <c r="B301" t="s">
+        <v>15</v>
+      </c>
+      <c r="C301" t="s">
+        <v>19</v>
+      </c>
+      <c r="D301" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E301" t="s">
+        <v>17</v>
+      </c>
+      <c r="F301" t="n">
+        <v>1.09907129501917</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="s">
+        <v>14</v>
+      </c>
+      <c r="B302" t="s">
+        <v>15</v>
+      </c>
+      <c r="C302" t="s">
+        <v>20</v>
+      </c>
+      <c r="D302" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E302" t="s">
+        <v>17</v>
+      </c>
+      <c r="F302" t="n">
+        <v>5.95588426075053</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="s">
+        <v>14</v>
+      </c>
+      <c r="B303" t="s">
+        <v>15</v>
+      </c>
+      <c r="C303" t="s">
+        <v>21</v>
+      </c>
+      <c r="D303" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E303" t="s">
+        <v>17</v>
+      </c>
+      <c r="F303" t="n">
+        <v>5.84991173408585</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="s">
+        <v>14</v>
+      </c>
+      <c r="B304" t="s">
+        <v>15</v>
+      </c>
+      <c r="C304" t="s">
+        <v>22</v>
+      </c>
+      <c r="D304" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E304" t="s">
+        <v>17</v>
+      </c>
+      <c r="F304" t="n">
+        <v>18.2414282572659</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="s">
+        <v>14</v>
+      </c>
+      <c r="B305" t="s">
+        <v>15</v>
+      </c>
+      <c r="C305" t="s">
+        <v>23</v>
+      </c>
+      <c r="D305" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E305" t="s">
+        <v>17</v>
+      </c>
+      <c r="F305" t="n">
+        <v>5.21946367869851</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="s">
+        <v>14</v>
+      </c>
+      <c r="B306" t="s">
+        <v>15</v>
+      </c>
+      <c r="C306" t="s">
+        <v>24</v>
+      </c>
+      <c r="D306" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E306" t="s">
+        <v>17</v>
+      </c>
+      <c r="F306" t="n">
+        <v>-2.03267247639106</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="s">
+        <v>14</v>
+      </c>
+      <c r="B307" t="s">
+        <v>15</v>
+      </c>
+      <c r="C307" t="s">
+        <v>25</v>
+      </c>
+      <c r="D307" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E307" t="s">
+        <v>17</v>
+      </c>
+      <c r="F307" t="n">
+        <v>5.62398835031265</v>
       </c>
     </row>
   </sheetData>
